--- a/Dimagi/ESPEN Collect forms/oncho_5_black_flies_lab.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_5_black_flies_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F50C09-CF2E-4ED2-8133-7AC4D3E79CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06323D22-D936-47CC-9E67-1BF81C776741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -136,12 +136,6 @@
     <t>r_End</t>
   </si>
   <si>
-    <t>oncho_5_black_flies_lab</t>
-  </si>
-  <si>
-    <t>5. Blackfly Lab App</t>
-  </si>
-  <si>
     <t>lbl_state</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>lbl_river</t>
   </si>
   <si>
-    <t>lbl_gps</t>
-  </si>
-  <si>
     <t>lbl_site_id</t>
   </si>
   <si>
@@ -205,18 +196,12 @@
     <t>River:</t>
   </si>
   <si>
-    <t>GPS Coordinates:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Site ID: </t>
   </si>
   <si>
     <t>Please select the months in which the flies included in this pool were collected</t>
   </si>
   <si>
-    <t>How many pools of a 100 tested positive by PCR</t>
-  </si>
-  <si>
     <t>How many pools of a 100 tested Negative by PCR</t>
   </si>
   <si>
@@ -247,9 +232,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
@@ -307,23 +289,125 @@
     <t>note</t>
   </si>
   <si>
-    <t>Months of Fly Collection:
-Total Number of Pools: ${pools_count}
-Total Number of Positive Pools: ${pools_positive}
-Total Number of Negative Pools: ${pools_negative}</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
     <t>select_one pol_results</t>
+  </si>
+  <si>
+    <t>5. Blackfly Lab App V2</t>
+  </si>
+  <si>
+    <t>oncho_5_black_flies_lab_v2</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>${pools_positive}</t>
+  </si>
+  <si>
+    <t>pools_positive_name</t>
+  </si>
+  <si>
+    <t>pools_positive_result</t>
+  </si>
+  <si>
+    <t>pools_positive_size</t>
+  </si>
+  <si>
+    <t>pools_positive_test_type</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>pools_positive_details_v2</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>pools_negative_details_v2</t>
+  </si>
+  <si>
+    <t>pools_negative_name</t>
+  </si>
+  <si>
+    <t>pools_negative_result</t>
+  </si>
+  <si>
+    <t>pools_negative_size</t>
+  </si>
+  <si>
+    <t>pools_negative_test_type</t>
+  </si>
+  <si>
+    <t>${pools_negative}</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>lbl_lat</t>
+  </si>
+  <si>
+    <t>lbl_long</t>
+  </si>
+  <si>
+    <t>GPS Latitude</t>
+  </si>
+  <si>
+    <t>GPS Longitude</t>
+  </si>
+  <si>
+    <t>Months of Fly Collection: **${select_pool_months}**
+Total Number of Pools: **${pools_count}**
+Total Number of Positive Pools: **${pools_positive}**
+Total Number of Negative Pools: **${pools_negative}**</t>
+  </si>
+  <si>
+    <t>${confirm_pool_summary} = 'Yes'</t>
+  </si>
+  <si>
+    <t>Please cofirm the number of pool tested</t>
+  </si>
+  <si>
+    <t>How many pools of a 100 flies tested positive by PCR</t>
+  </si>
+  <si>
+    <t>Pools of Positives</t>
+  </si>
+  <si>
+    <t>Pools of Negatives</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Test type</t>
+  </si>
+  <si>
+    <t>${pools_positive} &gt; 0</t>
+  </si>
+  <si>
+    <t>${pools_negative} &gt; 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -368,8 +452,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +476,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -431,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -473,6 +581,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,7 +965,7 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -884,8 +1005,11 @@
       <c r="M1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N1" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -913,15 +1037,15 @@
       <c r="K2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
@@ -933,15 +1057,15 @@
       <c r="K3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
@@ -953,15 +1077,15 @@
       <c r="K4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
@@ -973,15 +1097,15 @@
       <c r="K5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
@@ -993,15 +1117,15 @@
       <c r="K6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
@@ -1013,15 +1137,15 @@
       <c r="K7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
@@ -1033,15 +1157,15 @@
       <c r="K8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
@@ -1049,21 +1173,19 @@
       <c r="G9" s="9"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
@@ -1077,15 +1199,15 @@
       <c r="K10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
@@ -1099,37 +1221,41 @@
       <c r="K11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
@@ -1137,21 +1263,19 @@
       <c r="G13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
@@ -1159,21 +1283,23 @@
       <c r="G14" s="9"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
@@ -1181,21 +1307,23 @@
       <c r="G15" s="9"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>100</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="7"/>
@@ -1203,43 +1331,41 @@
       <c r="G16" s="9"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7"/>
@@ -1247,69 +1373,365 @@
       <c r="G18" s="9"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
+        <v>100</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="21"/>
+    </row>
+    <row r="25" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" s="10" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1323,7 +1745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1378,168 +1800,168 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
+      <c r="A6" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1999,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
